--- a/doc/app/pg0171/エビデンス/No10.xlsx
+++ b/doc/app/pg0171/エビデンス/No10.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\rust\rust_learn\doc\app\pg0171\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2830A2-B96D-4D3B-B74E-86FC881E1F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36AE44-9186-4212-A257-76C959570106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="エビデンス" sheetId="1" r:id="rId1"/>
+    <sheet name="1回目" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -128,16 +128,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,176 +456,176 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:142" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
-      <c r="BW2" s="1"/>
-      <c r="BX2" s="1"/>
-      <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
-      <c r="CO2" s="1"/>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1"/>
-      <c r="CR2" s="1"/>
-      <c r="CS2" s="1"/>
-      <c r="CT2" s="1"/>
-      <c r="CU2" s="1"/>
-      <c r="CV2" s="1"/>
-      <c r="CW2" s="1"/>
-      <c r="CX2" s="1"/>
-      <c r="CY2" s="1"/>
-      <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
-      <c r="DB2" s="1"/>
-      <c r="DC2" s="1"/>
-      <c r="DD2" s="1"/>
-      <c r="DE2" s="1"/>
-      <c r="DF2" s="1"/>
-      <c r="DG2" s="1"/>
-      <c r="DH2" s="1"/>
-      <c r="DI2" s="1"/>
-      <c r="DJ2" s="1"/>
-      <c r="DK2" s="1"/>
-      <c r="DL2" s="1"/>
-      <c r="DM2" s="1"/>
-      <c r="DN2" s="1"/>
-      <c r="DO2" s="1"/>
-      <c r="DP2" s="1"/>
-      <c r="DQ2" s="1"/>
-      <c r="DR2" s="1"/>
-      <c r="DS2" s="1"/>
-      <c r="DT2" s="1"/>
-      <c r="DU2" s="1"/>
-      <c r="DV2" s="1"/>
-      <c r="DW2" s="1"/>
-      <c r="DX2" s="1"/>
-      <c r="DY2" s="1"/>
-      <c r="DZ2" s="1"/>
-      <c r="EA2" s="1"/>
-      <c r="EB2" s="1"/>
-      <c r="EC2" s="1"/>
-      <c r="ED2" s="1"/>
-      <c r="EE2" s="1"/>
-      <c r="EF2" s="1"/>
-      <c r="EG2" s="1"/>
-      <c r="EH2" s="1"/>
-      <c r="EI2" s="1"/>
-      <c r="EJ2" s="1"/>
-      <c r="EK2" s="1"/>
-      <c r="EL2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
+      <c r="DJ2" s="4"/>
+      <c r="DK2" s="4"/>
+      <c r="DL2" s="4"/>
+      <c r="DM2" s="4"/>
+      <c r="DN2" s="4"/>
+      <c r="DO2" s="4"/>
+      <c r="DP2" s="4"/>
+      <c r="DQ2" s="4"/>
+      <c r="DR2" s="4"/>
+      <c r="DS2" s="4"/>
+      <c r="DT2" s="4"/>
+      <c r="DU2" s="4"/>
+      <c r="DV2" s="4"/>
+      <c r="DW2" s="4"/>
+      <c r="DX2" s="4"/>
+      <c r="DY2" s="4"/>
+      <c r="DZ2" s="4"/>
+      <c r="EA2" s="4"/>
+      <c r="EB2" s="4"/>
+      <c r="EC2" s="4"/>
+      <c r="ED2" s="4"/>
+      <c r="EE2" s="4"/>
+      <c r="EF2" s="4"/>
+      <c r="EG2" s="4"/>
+      <c r="EH2" s="4"/>
+      <c r="EI2" s="4"/>
+      <c r="EJ2" s="4"/>
+      <c r="EK2" s="4"/>
+      <c r="EL2" s="4"/>
     </row>
     <row r="4" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="Y4" s="3"/>
@@ -651,31 +651,31 @@
       <c r="AS4" s="3"/>
     </row>
     <row r="5" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="4" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Y5" s="3"/>
@@ -701,31 +701,31 @@
       <c r="AS5" s="3"/>
     </row>
     <row r="6" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="4" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Y6" s="3"/>

--- a/doc/app/pg0171/エビデンス/No10.xlsx
+++ b/doc/app/pg0171/エビデンス/No10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\rust\rust_learn\doc\app\pg0171\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36AE44-9186-4212-A257-76C959570106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB0C082-0A49-42D2-9A16-7393464DDB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,11 +38,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>No1</t>
+    <t>No10</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>pg0171_db_update_単体テスト仕様書</t>
+    <t>申請者するカードが未登録</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -62,7 +62,8 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,6 +156,458 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>68950</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>25496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B78F57-17F9-FF4C-7E9E-192A9DB2A5D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="14236700"/>
+          <a:ext cx="16299550" cy="685896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>48573</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>86567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC59411C-F958-E7C8-9688-6D4D3BA649A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="1524000"/>
+          <a:ext cx="6792273" cy="6030167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB70A746-4CEC-D176-3E75-190148318396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4089400" y="3562350"/>
+          <a:ext cx="2057400" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>該当するカードがないことを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB2FE67-F9C7-4746-BF80-AE7141AA7E4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="8813800"/>
+          <a:ext cx="2057400" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29475"/>
+            <a:gd name="adj2" fmla="val -91071"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>パラメータ一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>No10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>の引数を与える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>48621</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>124603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876659EE-50CB-8421-5255-35B53BD8F6DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1689100"/>
+          <a:ext cx="7135221" cy="5572903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD79B33-0C44-4643-B655-3FB140C5DA51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4445000" y="3613150"/>
+          <a:ext cx="2057400" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>該当するカードがあることを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>68950</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>6512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CEB3C3-35BC-ED09-B7B8-1E060B9843E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="16052800"/>
+          <a:ext cx="16299550" cy="1162212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2FE0A8-1A5F-4C55-A920-34A3C3F6938D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4737100" y="17335500"/>
+          <a:ext cx="2057400" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29475"/>
+            <a:gd name="adj2" fmla="val -91071"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>想定通りのメッセージが出た</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:EL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AU10" sqref="AU10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="CS1" sqref="CS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -763,5 +1216,6 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>